--- a/导表工具/Excels/技能表.xlsx
+++ b/导表工具/Excels/技能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFBF930-1D51-F548-8FBC-0357E4C3CC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6BBA3B-B6FC-594F-844A-913F1CCD5A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗技能表" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>##</t>
   </si>
@@ -118,6 +118,22 @@
   </si>
   <si>
     <t>威力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastDistance#default=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectDistance#default=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -510,13 +526,15 @@
     <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="26.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -538,8 +556,14 @@
       <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -561,13 +585,19 @@
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:9" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -589,8 +619,14 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -604,6 +640,12 @@
       </c>
       <c r="G5" s="1">
         <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/技能表.xlsx
+++ b/导表工具/Excels/技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6BBA3B-B6FC-594F-844A-913F1CCD5A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A7C36-0AA1-014E-A52C-1CDE86A01CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>

--- a/导表工具/Excels/技能表.xlsx
+++ b/导表工具/Excels/技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A7C36-0AA1-014E-A52C-1CDE86A01CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD20D8E4-BA11-BE4B-8B5B-DAEB383DABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>##</t>
   </si>
@@ -134,6 +134,22 @@
   </si>
   <si>
     <t>EffectDistance#default=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火弹术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小碎步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -631,21 +647,75 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
+      <c r="H8" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +730,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -749,12 +819,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
     </row>
